--- a/nufuslar.xlsx
+++ b/nufuslar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtgun\OneDrive\Belgeler\GitHub\muy665-bahar2024-takim-what-R-we-doing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED06E960-BA42-4A02-B9B2-1CA71373AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57405CE-B671-4EC4-B340-626908C02731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3552" yWindow="5988" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>Esenyurt</t>
   </si>
   <si>
-    <t>Eyüp</t>
-  </si>
-  <si>
     <t>Fatih</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>İlçe</t>
+  </si>
+  <si>
+    <t>Eyüpsultan</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>2008</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>316632</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>443955</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>460675</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>314271</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>533452</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>415130</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>426748</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>669081</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>417605</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>538065</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>227602</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>252986</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>12753</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>111636</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>312666</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>282026</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>444295</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>170453</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>553935</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>524889</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>288058</v>
